--- a/checklist_security-lab3.xlsx
+++ b/checklist_security-lab3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" tabRatio="710" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Change Log" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>Tên project</t>
   </si>
@@ -112,7 +112,10 @@
 Nếu thỏa là OK</t>
   </si>
   <si>
-    <t>SV</t>
+    <t>Nguyễn Thành Đạt</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>Câu 2:
@@ -726,16 +729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1672,14 +1675,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55555555555556" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.55454545454545" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="2.43518518518518" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" style="30" customWidth="1"/>
-    <col min="3" max="3" width="35.1018518518519" style="30" customWidth="1"/>
-    <col min="4" max="4" width="54.3333333333333" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.1018518518519" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="8.55555555555556" style="30"/>
+    <col min="1" max="1" width="2.43636363636364" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.5545454545455" style="30" customWidth="1"/>
+    <col min="3" max="3" width="35.1" style="30" customWidth="1"/>
+    <col min="4" max="4" width="54.3363636363636" style="30" customWidth="1"/>
+    <col min="5" max="5" width="17.1" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="8.55454545454545" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -1901,21 +1904,23 @@
   </sheetPr>
   <dimension ref="A1:AE898"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4363636363636" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.666666666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
-    <col min="3" max="23" width="4.66666666666667" customWidth="1"/>
-    <col min="24" max="28" width="10.4351851851852" customWidth="1"/>
-    <col min="29" max="29" width="10.4351851851852" style="3" customWidth="1"/>
-    <col min="30" max="30" width="14.4351851851852" style="4"/>
-    <col min="31" max="31" width="0.333333333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="0.663636363636364" customWidth="1"/>
+    <col min="2" max="2" width="10.3363636363636" customWidth="1"/>
+    <col min="3" max="23" width="4.66363636363636" customWidth="1"/>
+    <col min="24" max="24" width="10.4363636363636" customWidth="1"/>
+    <col min="25" max="25" width="14.9636363636364" customWidth="1"/>
+    <col min="26" max="28" width="10.4363636363636" customWidth="1"/>
+    <col min="29" max="29" width="10.4363636363636" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.4363636363636" style="4"/>
+    <col min="31" max="31" width="0.336363636363636" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" customHeight="1" spans="1:31">
@@ -1953,7 +1958,7 @@
       <c r="AD1" s="19"/>
       <c r="AE1" s="20"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:31">
+    <row r="2" s="1" customFormat="1" ht="13" spans="1:31">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +2009,7 @@
       <c r="AC3" s="23"/>
       <c r="AD3" s="24" t="str">
         <f>"Point: "&amp;SUM(AD5:AD13)</f>
-        <v>Point: 0</v>
+        <v>Point: 8</v>
       </c>
       <c r="AE3" s="20"/>
     </row>
@@ -2080,18 +2085,20 @@
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="18">
-        <v>45568</v>
+        <v>45361</v>
       </c>
       <c r="Y5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="25"/>
+      <c r="Z5" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="25"/>
       <c r="AD5" s="26">
         <f>IF(Z5="OK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="20"/>
     </row>
@@ -2101,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -2123,15 +2130,21 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
+      <c r="X6" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="26">
         <f>IF(Z6="OK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="27"/>
     </row>
@@ -2141,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2163,15 +2176,21 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
+      <c r="X7" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y7" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="25"/>
       <c r="AD7" s="26">
         <f t="shared" ref="AD6:AD14" si="1">IF(Z7="OK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="20"/>
     </row>
@@ -2181,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2203,15 +2222,21 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
+      <c r="X8" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
       <c r="AD8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="20"/>
     </row>
@@ -2220,7 +2245,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2242,15 +2267,21 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
+      <c r="X9" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
       <c r="AD9" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="20"/>
     </row>
@@ -2260,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2282,15 +2313,21 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
+      <c r="X10" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z10" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
       <c r="AC10" s="25"/>
       <c r="AD10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="20"/>
     </row>
@@ -2300,7 +2337,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2322,15 +2359,21 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="X11" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="25"/>
       <c r="AD11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="20"/>
     </row>
@@ -2340,7 +2383,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2362,15 +2405,21 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
+      <c r="X12" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z12" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
       <c r="AC12" s="25"/>
       <c r="AD12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="20"/>
     </row>
@@ -2380,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2402,8 +2451,12 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="25"/>
+      <c r="X13" s="18">
+        <v>45361</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="Z13" s="25"/>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
